--- a/data/output/tables/variacion.xlsx
+++ b/data/output/tables/variacion.xlsx
@@ -22,22 +22,22 @@
     <t>test_rmse</t>
   </si>
   <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>xgb</t>
+  </si>
+  <si>
+    <t>knn</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
     <t>lr</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>xgb</t>
-  </si>
-  <si>
-    <t>ann</t>
-  </si>
-  <si>
-    <t>ar</t>
   </si>
   <si>
     <t>arima</t>
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1255.879226075102</v>
+        <v>1097.805347418062</v>
       </c>
       <c r="C2">
-        <v>3105.390023382689</v>
+        <v>2806.963502959038</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1043.94851897755</v>
+        <v>2405.876565135879</v>
       </c>
       <c r="C3">
-        <v>3150.868292901579</v>
+        <v>3219.754604985424</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2624.400178011617</v>
+        <v>2191.742825547007</v>
       </c>
       <c r="C4">
-        <v>3419.587364512775</v>
+        <v>3386.451749061928</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1235.669026691707</v>
+        <v>2399.071509080614</v>
       </c>
       <c r="C5">
-        <v>3430.934884417542</v>
+        <v>3390.026119447072</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2491.105539817602</v>
+        <v>987.0057410035536</v>
       </c>
       <c r="C6">
-        <v>3474.871619102967</v>
+        <v>3578.309429219516</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>927.4507889877582</v>
+        <v>2272.732837916357</v>
       </c>
       <c r="C7">
-        <v>3637.428129138278</v>
+        <v>4011.539676092948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>19265.46168213052</v>
+        <v>54934.18804108499</v>
       </c>
       <c r="C8">
-        <v>11214.1565222677</v>
+        <v>170730.9605808077</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/tables/variacion.xlsx
+++ b/data/output/tables/variacion.xlsx
@@ -22,22 +22,22 @@
     <t>test_rmse</t>
   </si>
   <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>xgb</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>knn</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
     <t>ar</t>
-  </si>
-  <si>
-    <t>ann</t>
-  </si>
-  <si>
-    <t>xgb</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
-    <t>lr</t>
   </si>
   <si>
     <t>arima</t>
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1097.805347418062</v>
+        <v>1327.609586313175</v>
       </c>
       <c r="C2">
-        <v>2806.963502959038</v>
+        <v>3135.431325646427</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2405.876565135879</v>
+        <v>1212.555248313581</v>
       </c>
       <c r="C3">
-        <v>3219.754604985424</v>
+        <v>3353.029024307607</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2191.742825547007</v>
+        <v>2489.721653576752</v>
       </c>
       <c r="C4">
-        <v>3386.451749061928</v>
+        <v>3466.468880887418</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2399.071509080614</v>
+        <v>2631.157612762982</v>
       </c>
       <c r="C5">
-        <v>3390.026119447072</v>
+        <v>3558.039597665867</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>987.0057410035536</v>
+        <v>2068.689641174717</v>
       </c>
       <c r="C6">
-        <v>3578.309429219516</v>
+        <v>3633.441315477908</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2272.732837916357</v>
+        <v>1537.076022831484</v>
       </c>
       <c r="C7">
-        <v>4011.539676092948</v>
+        <v>4913.02052662371</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>54934.18804108499</v>
+        <v>18555.31407937393</v>
       </c>
       <c r="C8">
-        <v>170730.9605808077</v>
+        <v>50893.16260935197</v>
       </c>
     </row>
   </sheetData>
